--- a/src/main/resources/config.xlsx
+++ b/src/main/resources/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Workspace\RC\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8558548D-077C-48EA-85EC-AF292065B374}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C0051A-B111-4A15-BA8B-7720B199E062}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27792" windowHeight="14376" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27792" windowHeight="14376" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVENT_CONFIG" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="321">
   <si>
     <t>EVENT_NAME</t>
   </si>
@@ -51,9 +51,6 @@
     <t>EVENT_ICON</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <r>
       <t>WRECKED_LIFEBOAT</t>
     </r>
@@ -267,15 +264,6 @@
     </r>
   </si>
   <si>
-    <t>ADVENTURE_BUILDING</t>
-  </si>
-  <si>
-    <t>ADVENTURE_RESOURCES</t>
-  </si>
-  <si>
-    <t>ADVENTURE_EXPLORATION</t>
-  </si>
-  <si>
     <r>
       <t>OTTERS</t>
     </r>
@@ -1119,9 +1107,6 @@
     <t>ADVENTURE_BUILDING_NAME</t>
   </si>
   <si>
-    <t>SOME_EVENT_NAME</t>
-  </si>
-  <si>
     <r>
       <t>TOOL_BREAKS</t>
     </r>
@@ -2052,9 +2037,6 @@
     <t>BEAST_NAME</t>
   </si>
   <si>
-    <t>BEAST_STRENGHT</t>
-  </si>
-  <si>
     <t>FOOD</t>
   </si>
   <si>
@@ -2226,9 +2208,6 @@
     </r>
   </si>
   <si>
-    <t>WEAPON_DROP</t>
-  </si>
-  <si>
     <t>EFFECT</t>
   </si>
   <si>
@@ -2256,9 +2235,6 @@
     <t>CANOE</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>TRANSQUELEZER</t>
   </si>
   <si>
@@ -2784,9 +2760,6 @@
     </r>
   </si>
   <si>
-    <t>MANDATORY</t>
-  </si>
-  <si>
     <t>TRUE</t>
   </si>
   <si>
@@ -2808,73 +2781,7 @@
     <t>OWNER</t>
   </si>
   <si>
-    <t>BASIC</t>
-  </si>
-  <si>
     <t>MULTIPLE</t>
-  </si>
-  <si>
-    <r>
-      <t>MAST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>SACRED_BELL</t>
-  </si>
-  <si>
-    <r>
-      <t>CROSS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LIFEBOAT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CANOE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <r>
@@ -3468,9 +3375,6 @@
     <t>CHARACTER_NAME</t>
   </si>
   <si>
-    <t>SKILLS</t>
-  </si>
-  <si>
     <t>MORALE_DOWN</t>
   </si>
   <si>
@@ -3481,7 +3385,7 @@
   </si>
   <si>
     <r>
-      <t>ECONOMICAL_CONSTRUCTION</t>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -3505,7 +3409,7 @@
         <family val="3"/>
         <charset val="238"/>
       </rPr>
-      <t>CRAFT</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -3529,7 +3433,12 @@
         <family val="3"/>
         <charset val="238"/>
       </rPr>
-      <t>NEW_IDEA</t>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
     </r>
     <r>
       <rPr>
@@ -3553,12 +3462,7 @@
         <family val="3"/>
         <charset val="238"/>
       </rPr>
-      <t>HANDYMAN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -3582,7 +3486,7 @@
         <family val="3"/>
         <charset val="238"/>
       </rPr>
-      <t>5</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -3606,318 +3510,10 @@
         <family val="3"/>
         <charset val="238"/>
       </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GRANDMAS_RECIPE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>SHARP_EYE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>NAIL_SOUP</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>HOOCH</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
       <t>2</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>LUCKY_MAN</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>RECONNAISSANCE</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>MOTIVATIONAL_SPEECH</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>SCOUT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TRACKING</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>,H</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>OUNTING</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>FURY</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>EMERGENCY_PLAN</t>
-    </r>
-  </si>
-  <si>
     <t>ISLAND_ID</t>
   </si>
   <si>
@@ -3961,6 +3557,123 @@
   </si>
   <si>
     <t>RAIN-SNOW-ANIMALS</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>ADV_EVENT_NAME</t>
+  </si>
+  <si>
+    <t>INITIAL</t>
+  </si>
+  <si>
+    <t>SCN_HATCHET</t>
+  </si>
+  <si>
+    <t>SCN_MAST</t>
+  </si>
+  <si>
+    <t>SCN_SACRED_BELL</t>
+  </si>
+  <si>
+    <t>SCN_CROSS</t>
+  </si>
+  <si>
+    <t>SCN_JENNY_RAFT</t>
+  </si>
+  <si>
+    <t>SCN_LIFEBOAT</t>
+  </si>
+  <si>
+    <t>SCN_BALLISTA</t>
+  </si>
+  <si>
+    <t>SCN_CANOE</t>
+  </si>
+  <si>
+    <t>SCN_GARDEN</t>
+  </si>
+  <si>
+    <t>SCN_TRAP</t>
+  </si>
+  <si>
+    <t>SCN_TRANSQUELEZER</t>
+  </si>
+  <si>
+    <t>SKILL_1</t>
+  </si>
+  <si>
+    <t>SKILL_2</t>
+  </si>
+  <si>
+    <t>SKILL_3</t>
+  </si>
+  <si>
+    <t>SKILL_4</t>
+  </si>
+  <si>
+    <t>ECONOMICAL_CONSTRUCTION</t>
+  </si>
+  <si>
+    <t>CRAFT</t>
+  </si>
+  <si>
+    <t>SHARP_EYE</t>
+  </si>
+  <si>
+    <t>RECONNAISSANCE</t>
+  </si>
+  <si>
+    <t>HOUNTING</t>
+  </si>
+  <si>
+    <t>NEW_IDEA</t>
+  </si>
+  <si>
+    <t>HANDYMAN</t>
+  </si>
+  <si>
+    <t>GRANDMAS_RECIPE</t>
+  </si>
+  <si>
+    <t>NAIL_SOUP</t>
+  </si>
+  <si>
+    <t>HOOCH</t>
+  </si>
+  <si>
+    <t>LUCKY_MAN</t>
+  </si>
+  <si>
+    <t>MOTIVATIONAL_SPEECH</t>
+  </si>
+  <si>
+    <t>SCOUT</t>
+  </si>
+  <si>
+    <t>TRACKING</t>
+  </si>
+  <si>
+    <t>FURY</t>
+  </si>
+  <si>
+    <t>EMERGENCY_PLAN</t>
+  </si>
+  <si>
+    <t>BUILDING_ADVENTURE</t>
+  </si>
+  <si>
+    <t>RESOURCES_ADVENTURE</t>
+  </si>
+  <si>
+    <t>EXPLORATION_ADVENTURE</t>
+  </si>
+  <si>
+    <t>STRENGTH</t>
+  </si>
+  <si>
+    <t>DAMAGE</t>
   </si>
 </sst>
 </file>
@@ -4055,11 +3768,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -4400,8 +4114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -4420,10 +4134,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4431,1067 +4145,1078 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>282</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>282</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D36" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="C57" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D58" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="C61" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="C64" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D66" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D67" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
         <v>75</v>
       </c>
-      <c r="B69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" t="s">
-        <v>79</v>
-      </c>
       <c r="D69" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="C70" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D70" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" t="s">
         <v>77</v>
-      </c>
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="C72" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="C73" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D73" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D75" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D77" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
+      <c r="A78" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B78" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" t="s">
+        <v>282</v>
+      </c>
+      <c r="D78" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
@@ -5507,273 +5232,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="56.8984375" customWidth="1"/>
-    <col min="2" max="2" width="39.19921875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>267</v>
-      </c>
-      <c r="B20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5788,7 +5246,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5796,246 +5254,514 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="56.8984375" customWidth="1"/>
+    <col min="2" max="2" width="39.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6044,7 +5770,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -6055,7 +5781,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -6063,242 +5789,242 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -6310,8 +6036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -6326,33 +6052,33 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>150</v>
+        <v>319</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>164</v>
+        <v>320</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B2">
         <v>6</v>
       </c>
       <c r="C2">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -6363,13 +6089,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -6380,7 +6106,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6397,13 +6123,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -6414,13 +6140,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -6431,13 +6157,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -6448,7 +6174,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -6465,13 +6191,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -6482,13 +6208,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -6499,13 +6225,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -6516,7 +6242,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -6533,7 +6259,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -6550,13 +6276,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -6567,13 +6293,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -6584,7 +6310,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -6601,13 +6327,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -6625,8 +6351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -6641,52 +6367,52 @@
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -6697,46 +6423,46 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="H2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="J2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K2" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="L2" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="M2" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="N2" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="O2" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="P2" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -6747,10 +6473,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -6761,10 +6487,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -6775,10 +6501,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -6789,10 +6515,10 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -6803,10 +6529,10 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -6817,10 +6543,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -6830,733 +6556,606 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.69921875" customWidth="1"/>
-    <col min="2" max="2" width="7.19921875" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>198</v>
       </c>
-      <c r="B2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>199</v>
       </c>
-      <c r="B3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>200</v>
       </c>
-      <c r="B4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>201</v>
       </c>
-      <c r="B6" t="s">
-        <v>227</v>
-      </c>
-      <c r="C6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>202</v>
       </c>
-      <c r="B7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>203</v>
       </c>
-      <c r="B8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>204</v>
       </c>
-      <c r="B9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>205</v>
       </c>
-      <c r="B10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" t="s">
-        <v>227</v>
-      </c>
-      <c r="D10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>206</v>
       </c>
-      <c r="B11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>207</v>
       </c>
-      <c r="B12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>208</v>
       </c>
-      <c r="B13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" t="s">
+        <v>282</v>
+      </c>
+      <c r="D22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>209</v>
       </c>
-      <c r="B14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C14" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>210</v>
       </c>
-      <c r="B15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" t="s">
-        <v>228</v>
-      </c>
-      <c r="D15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" t="s">
+        <v>282</v>
+      </c>
+      <c r="D24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>211</v>
       </c>
-      <c r="B16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" t="s">
-        <v>228</v>
-      </c>
-      <c r="D16" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>212</v>
       </c>
-      <c r="B17" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" t="s">
-        <v>228</v>
-      </c>
-      <c r="D17" t="s">
-        <v>174</v>
-      </c>
-      <c r="E17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>213</v>
       </c>
-      <c r="B18" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>196</v>
-      </c>
-      <c r="B19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C19" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" t="s">
-        <v>232</v>
-      </c>
-      <c r="E19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>214</v>
       </c>
-      <c r="B20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" t="s">
-        <v>228</v>
-      </c>
-      <c r="D20" t="s">
-        <v>174</v>
-      </c>
-      <c r="E20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" t="s">
+        <v>282</v>
+      </c>
+      <c r="D28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>215</v>
       </c>
-      <c r="B21" t="s">
-        <v>227</v>
-      </c>
-      <c r="C21" t="s">
-        <v>228</v>
-      </c>
-      <c r="D21" t="s">
-        <v>174</v>
-      </c>
-      <c r="E21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B29" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>216</v>
       </c>
-      <c r="B22" t="s">
-        <v>227</v>
-      </c>
-      <c r="C22" t="s">
-        <v>228</v>
-      </c>
-      <c r="D22" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" t="s">
+        <v>221</v>
+      </c>
+      <c r="D30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>217</v>
       </c>
-      <c r="B23" t="s">
-        <v>227</v>
-      </c>
-      <c r="C23" t="s">
-        <v>228</v>
-      </c>
-      <c r="D23" t="s">
-        <v>174</v>
-      </c>
-      <c r="E23" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" t="s">
+        <v>282</v>
+      </c>
+      <c r="D31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>285</v>
+      </c>
+      <c r="B32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" t="s">
+        <v>282</v>
+      </c>
+      <c r="D32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" t="s">
+        <v>282</v>
+      </c>
+      <c r="D34" t="s">
         <v>218</v>
       </c>
-      <c r="B24" t="s">
-        <v>227</v>
-      </c>
-      <c r="C24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D24" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>219</v>
-      </c>
-      <c r="B25" t="s">
-        <v>227</v>
-      </c>
-      <c r="C25" t="s">
-        <v>228</v>
-      </c>
-      <c r="D25" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>220</v>
-      </c>
-      <c r="B26" t="s">
-        <v>227</v>
-      </c>
-      <c r="C26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D26" t="s">
-        <v>174</v>
-      </c>
-      <c r="E26" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>221</v>
-      </c>
-      <c r="B27" t="s">
-        <v>227</v>
-      </c>
-      <c r="C27" t="s">
-        <v>228</v>
-      </c>
-      <c r="D27" t="s">
-        <v>231</v>
-      </c>
-      <c r="E27" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>222</v>
-      </c>
-      <c r="B28" t="s">
-        <v>227</v>
-      </c>
-      <c r="C28" t="s">
-        <v>228</v>
-      </c>
-      <c r="D28" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>223</v>
-      </c>
-      <c r="B29" t="s">
-        <v>227</v>
-      </c>
-      <c r="C29" t="s">
-        <v>228</v>
-      </c>
-      <c r="D29" t="s">
-        <v>229</v>
-      </c>
-      <c r="E29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>224</v>
-      </c>
-      <c r="B30" t="s">
-        <v>227</v>
-      </c>
-      <c r="C30" t="s">
-        <v>228</v>
-      </c>
-      <c r="D30" t="s">
-        <v>230</v>
-      </c>
-      <c r="E30" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>225</v>
-      </c>
-      <c r="B31" t="s">
-        <v>227</v>
-      </c>
-      <c r="C31" t="s">
-        <v>228</v>
-      </c>
-      <c r="D31" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>176</v>
-      </c>
-      <c r="B32" t="s">
-        <v>228</v>
-      </c>
-      <c r="C32" t="s">
-        <v>228</v>
-      </c>
-      <c r="D32" t="s">
-        <v>174</v>
-      </c>
-      <c r="E32" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>236</v>
-      </c>
-      <c r="B33" t="s">
-        <v>228</v>
-      </c>
-      <c r="C33" t="s">
-        <v>228</v>
-      </c>
-      <c r="D33" t="s">
-        <v>174</v>
-      </c>
-      <c r="E33" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>237</v>
-      </c>
-      <c r="B34" t="s">
-        <v>228</v>
-      </c>
-      <c r="C34" t="s">
-        <v>228</v>
-      </c>
-      <c r="D34" t="s">
-        <v>174</v>
-      </c>
-      <c r="E34" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="B35" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C35" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="D35" t="s">
-        <v>174</v>
-      </c>
-      <c r="E35" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C36" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="D36" t="s">
-        <v>174</v>
-      </c>
-      <c r="E36" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C37" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="D37" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>179</v>
+        <v>291</v>
       </c>
       <c r="B38" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C38" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="B39" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C39" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="D39" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C40" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="D40" t="s">
-        <v>174</v>
-      </c>
-      <c r="E40" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="D41" t="s">
-        <v>174</v>
-      </c>
-      <c r="E41" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>295</v>
       </c>
       <c r="B42" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C42" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="D42" t="s">
-        <v>174</v>
-      </c>
-      <c r="E42" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -7566,86 +7165,131 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="15.8984375" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D2">
+        <v>301</v>
+      </c>
+      <c r="D2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D3">
+        <v>302</v>
+      </c>
+      <c r="D3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G3">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C4">
+        <v>310</v>
+      </c>
+      <c r="C4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4">
         <v>6.1</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>286</v>
-      </c>
-      <c r="C5">
+        <v>313</v>
+      </c>
+      <c r="C5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F5">
         <v>7.3</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>12</v>
       </c>
     </row>
@@ -7672,25 +7316,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -7698,13 +7342,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7713,7 +7357,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -7721,13 +7365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -7736,7 +7380,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -7744,13 +7388,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="C4" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -7759,7 +7403,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -7767,13 +7411,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -7782,7 +7426,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -7790,13 +7434,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -7805,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -7813,13 +7457,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -7828,7 +7472,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -7836,13 +7480,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="D8" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -7851,7 +7495,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -7859,13 +7503,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -7874,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -7882,13 +7526,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7897,7 +7541,7 @@
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -7905,13 +7549,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="C11" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -7920,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -7928,13 +7572,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="C12" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="D12" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -7943,7 +7587,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/config.xlsx
+++ b/src/main/resources/config.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Workspace\RC\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C0051A-B111-4A15-BA8B-7720B199E062}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27792" windowHeight="14376" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="EVENT_CONFIG" sheetId="1" r:id="rId1"/>
@@ -22,13 +16,14 @@
     <sheet name="INVENTION_CONFIG" sheetId="7" r:id="rId7"/>
     <sheet name="CHARACTER_CONFIG" sheetId="8" r:id="rId8"/>
     <sheet name="ISLAND_CONFIG" sheetId="9" r:id="rId9"/>
+    <sheet name="DICE_CONFIG" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="341">
   <si>
     <t>EVENT_NAME</t>
   </si>
@@ -3674,12 +3669,72 @@
   </si>
   <si>
     <t>DAMAGE</t>
+  </si>
+  <si>
+    <t>DICE_GROUP</t>
+  </si>
+  <si>
+    <t>WEATHER_DICES</t>
+  </si>
+  <si>
+    <t>BUILDING_DICES</t>
+  </si>
+  <si>
+    <t>EXPLORATION_DICES</t>
+  </si>
+  <si>
+    <t>RESOURCES_DICES</t>
+  </si>
+  <si>
+    <t>DICE_1</t>
+  </si>
+  <si>
+    <t>DICE_2</t>
+  </si>
+  <si>
+    <t>DICE_3</t>
+  </si>
+  <si>
+    <t>WALL_1</t>
+  </si>
+  <si>
+    <t>WALL_2</t>
+  </si>
+  <si>
+    <t>WALL_3</t>
+  </si>
+  <si>
+    <t>SNOW</t>
+  </si>
+  <si>
+    <t>ANIMALS</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>ADVENTURE</t>
+  </si>
+  <si>
+    <t>WOUND</t>
+  </si>
+  <si>
+    <t>SINGLE_RAIN,SINGLE_RAIN,SINGLE_RAIN,DOUBLE_RAIN,DOUBLE_RAIN,SINGLE_SNOW</t>
+  </si>
+  <si>
+    <t>DOUBLE_RAIN,DOUBLE_RAIN,SINGLE_SNOW,SINGLE_SNOW,DOUBLE_SNOW,DOUBLE_SNOW</t>
+  </si>
+  <si>
+    <t>NOTHING,NOTHING,BEAST_ATTACK,PALISADE_DAMAGE,PALISADE_DAMAGE,FOOD_DISCARD</t>
+  </si>
+  <si>
+    <t>NOTHING,NOTHING,NOTHING,NOTHING,NOTHING,NOTHING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <b/>
@@ -3834,7 +3889,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3867,26 +3922,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3919,23 +3957,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -4111,22 +4132,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="30.19921875" customWidth="1"/>
-    <col min="3" max="3" width="26.59765625" customWidth="1"/>
-    <col min="4" max="4" width="18.19921875" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4140,7 +4161,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4154,7 +4175,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4168,7 +4189,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4182,7 +4203,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4196,7 +4217,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4210,7 +4231,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4224,7 +4245,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4238,7 +4259,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4252,7 +4273,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4266,7 +4287,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4280,7 +4301,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4294,7 +4315,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -4308,7 +4329,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4322,7 +4343,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -4336,7 +4357,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -4350,7 +4371,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -4364,7 +4385,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -4378,7 +4399,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -4392,7 +4413,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -4406,7 +4427,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -4420,7 +4441,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -4434,7 +4455,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -4448,7 +4469,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -4462,7 +4483,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -4476,7 +4497,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -4490,7 +4511,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -4504,7 +4525,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -4518,7 +4539,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -4532,7 +4553,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -4546,7 +4567,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -4560,7 +4581,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -4574,7 +4595,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -4588,7 +4609,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -4602,7 +4623,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4616,7 +4637,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -4630,7 +4651,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>250</v>
       </c>
@@ -4644,7 +4665,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -4658,7 +4679,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -4672,7 +4693,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -4686,7 +4707,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -4700,7 +4721,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -4714,7 +4735,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -4728,7 +4749,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -4742,7 +4763,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -4756,7 +4777,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>251</v>
       </c>
@@ -4770,7 +4791,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -4784,7 +4805,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4798,7 +4819,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -4812,7 +4833,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -4826,7 +4847,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -4840,7 +4861,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -4854,7 +4875,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -4868,7 +4889,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>253</v>
       </c>
@@ -4882,7 +4903,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -4896,7 +4917,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -4910,7 +4931,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -4924,7 +4945,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -4938,7 +4959,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -4952,7 +4973,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>254</v>
       </c>
@@ -4966,7 +4987,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -4980,7 +5001,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -4994,7 +5015,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -5008,7 +5029,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -5022,7 +5043,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
@@ -5036,7 +5057,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
@@ -5050,7 +5071,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
@@ -5064,7 +5085,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
@@ -5078,7 +5099,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
@@ -5092,7 +5113,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
@@ -5106,7 +5127,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
@@ -5120,7 +5141,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>22</v>
       </c>
@@ -5134,7 +5155,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>21</v>
       </c>
@@ -5148,7 +5169,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>20</v>
       </c>
@@ -5162,7 +5183,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>255</v>
       </c>
@@ -5176,7 +5197,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>19</v>
       </c>
@@ -5190,7 +5211,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>18</v>
       </c>
@@ -5204,7 +5225,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>283</v>
       </c>
@@ -5218,10 +5239,10 @@
         <v>282</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
   </sheetData>
@@ -5230,21 +5251,160 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="76.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.8984375" customWidth="1"/>
-    <col min="2" max="2" width="39.19921875" customWidth="1"/>
+    <col min="1" max="1" width="56.875" customWidth="1"/>
+    <col min="2" max="2" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>78</v>
       </c>
@@ -5252,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -5260,7 +5420,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -5268,7 +5428,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -5276,7 +5436,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -5284,7 +5444,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -5292,7 +5452,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -5300,7 +5460,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -5308,7 +5468,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -5316,7 +5476,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -5324,7 +5484,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -5332,7 +5492,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -5340,7 +5500,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -5348,7 +5508,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -5356,7 +5516,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -5364,7 +5524,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -5372,7 +5532,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -5380,7 +5540,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -5388,7 +5548,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -5396,7 +5556,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>252</v>
       </c>
@@ -5404,7 +5564,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -5412,7 +5572,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -5420,7 +5580,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -5428,7 +5588,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -5436,7 +5596,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -5444,7 +5604,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -5452,7 +5612,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -5460,7 +5620,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -5468,7 +5628,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -5476,7 +5636,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -5484,7 +5644,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -5498,20 +5658,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.8984375" customWidth="1"/>
-    <col min="2" max="2" width="39.19921875" customWidth="1"/>
+    <col min="1" max="1" width="56.875" customWidth="1"/>
+    <col min="2" max="2" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>137</v>
       </c>
@@ -5519,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>138</v>
       </c>
@@ -5527,7 +5687,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -5535,7 +5695,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -5543,7 +5703,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>141</v>
       </c>
@@ -5551,7 +5711,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -5559,7 +5719,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>226</v>
       </c>
@@ -5567,7 +5727,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -5575,7 +5735,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>228</v>
       </c>
@@ -5583,7 +5743,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>229</v>
       </c>
@@ -5591,7 +5751,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>230</v>
       </c>
@@ -5599,7 +5759,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>231</v>
       </c>
@@ -5607,7 +5767,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>232</v>
       </c>
@@ -5615,7 +5775,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>233</v>
       </c>
@@ -5623,7 +5783,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>234</v>
       </c>
@@ -5631,7 +5791,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>235</v>
       </c>
@@ -5639,7 +5799,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>236</v>
       </c>
@@ -5647,7 +5807,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>143</v>
       </c>
@@ -5655,7 +5815,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>237</v>
       </c>
@@ -5663,7 +5823,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>238</v>
       </c>
@@ -5671,7 +5831,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>239</v>
       </c>
@@ -5679,7 +5839,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>240</v>
       </c>
@@ -5687,7 +5847,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>241</v>
       </c>
@@ -5695,7 +5855,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>242</v>
       </c>
@@ -5703,7 +5863,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>243</v>
       </c>
@@ -5711,7 +5871,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>244</v>
       </c>
@@ -5719,7 +5879,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>245</v>
       </c>
@@ -5727,7 +5887,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>246</v>
       </c>
@@ -5735,7 +5895,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>247</v>
       </c>
@@ -5743,7 +5903,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>248</v>
       </c>
@@ -5751,7 +5911,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>249</v>
       </c>
@@ -5766,20 +5926,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
-    <col min="2" max="2" width="33.8984375" customWidth="1"/>
+    <col min="2" max="2" width="33.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>108</v>
       </c>
@@ -5787,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -5795,7 +5955,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -5803,7 +5963,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -5811,7 +5971,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -5819,7 +5979,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -5827,7 +5987,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -5835,7 +5995,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -5843,7 +6003,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -5851,7 +6011,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>117</v>
       </c>
@@ -5859,7 +6019,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -5867,7 +6027,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -5875,7 +6035,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -5883,7 +6043,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>121</v>
       </c>
@@ -5891,7 +6051,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>256</v>
       </c>
@@ -5899,7 +6059,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>257</v>
       </c>
@@ -5907,7 +6067,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>122</v>
       </c>
@@ -5915,7 +6075,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>123</v>
       </c>
@@ -5923,7 +6083,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -5931,7 +6091,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -5939,7 +6099,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -5947,7 +6107,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -5955,7 +6115,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -5963,7 +6123,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>129</v>
       </c>
@@ -5971,7 +6131,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -5979,7 +6139,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>131</v>
       </c>
@@ -5987,7 +6147,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -5995,7 +6155,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -6003,7 +6163,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -6011,7 +6171,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>135</v>
       </c>
@@ -6019,7 +6179,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -6033,24 +6193,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
-    <col min="2" max="2" width="16.8984375" customWidth="1"/>
-    <col min="3" max="3" width="15.3984375" customWidth="1"/>
-    <col min="4" max="4" width="6.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
     <col min="5" max="5" width="6.5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>144</v>
       </c>
@@ -6070,7 +6230,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>147</v>
       </c>
@@ -6087,7 +6247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>258</v>
       </c>
@@ -6104,7 +6264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>148</v>
       </c>
@@ -6121,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
@@ -6138,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
@@ -6155,7 +6315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>151</v>
       </c>
@@ -6172,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>152</v>
       </c>
@@ -6189,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>153</v>
       </c>
@@ -6206,7 +6366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>154</v>
       </c>
@@ -6223,7 +6383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>155</v>
       </c>
@@ -6240,7 +6400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>259</v>
       </c>
@@ -6257,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>256</v>
       </c>
@@ -6274,7 +6434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>156</v>
       </c>
@@ -6291,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>257</v>
       </c>
@@ -6308,7 +6468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>260</v>
       </c>
@@ -6325,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>157</v>
       </c>
@@ -6348,24 +6508,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" customWidth="1"/>
-    <col min="5" max="10" width="19.3984375" customWidth="1"/>
-    <col min="11" max="16" width="20.59765625" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="10" width="19.375" customWidth="1"/>
+    <col min="11" max="16" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>159</v>
       </c>
@@ -6415,7 +6575,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6465,7 +6625,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6479,7 +6639,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6493,7 +6653,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6507,7 +6667,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6521,7 +6681,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6535,7 +6695,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6555,22 +6715,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>187</v>
       </c>
@@ -6584,7 +6744,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -6598,7 +6758,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>191</v>
       </c>
@@ -6612,7 +6772,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -6626,7 +6786,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -6640,7 +6800,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>193</v>
       </c>
@@ -6654,7 +6814,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -6668,7 +6828,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -6682,7 +6842,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -6696,7 +6856,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -6710,7 +6870,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -6724,7 +6884,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -6738,7 +6898,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -6752,7 +6912,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>201</v>
       </c>
@@ -6766,7 +6926,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>202</v>
       </c>
@@ -6780,7 +6940,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>203</v>
       </c>
@@ -6794,7 +6954,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>204</v>
       </c>
@@ -6808,7 +6968,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>205</v>
       </c>
@@ -6822,7 +6982,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>188</v>
       </c>
@@ -6836,7 +6996,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>206</v>
       </c>
@@ -6850,7 +7010,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>207</v>
       </c>
@@ -6864,7 +7024,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>208</v>
       </c>
@@ -6878,7 +7038,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>209</v>
       </c>
@@ -6892,7 +7052,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>210</v>
       </c>
@@ -6906,7 +7066,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>211</v>
       </c>
@@ -6920,7 +7080,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>212</v>
       </c>
@@ -6934,7 +7094,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>213</v>
       </c>
@@ -6948,7 +7108,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>214</v>
       </c>
@@ -6962,7 +7122,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>215</v>
       </c>
@@ -6976,7 +7136,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>216</v>
       </c>
@@ -6990,7 +7150,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>217</v>
       </c>
@@ -7004,7 +7164,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>285</v>
       </c>
@@ -7018,7 +7178,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -7032,7 +7192,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>287</v>
       </c>
@@ -7046,7 +7206,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>288</v>
       </c>
@@ -7060,7 +7220,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>289</v>
       </c>
@@ -7074,7 +7234,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>290</v>
       </c>
@@ -7088,7 +7248,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>291</v>
       </c>
@@ -7102,7 +7262,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>292</v>
       </c>
@@ -7116,7 +7276,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>293</v>
       </c>
@@ -7130,7 +7290,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>294</v>
       </c>
@@ -7144,7 +7304,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>295</v>
       </c>
@@ -7164,21 +7324,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="15.8984375" customWidth="1"/>
-    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>261</v>
       </c>
@@ -7201,7 +7361,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>264</v>
       </c>
@@ -7224,7 +7384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>223</v>
       </c>
@@ -7247,7 +7407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>222</v>
       </c>
@@ -7270,7 +7430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -7299,22 +7459,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>267</v>
       </c>
@@ -7337,7 +7497,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7360,7 +7520,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7383,7 +7543,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7406,7 +7566,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7429,7 +7589,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7452,7 +7612,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7475,7 +7635,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7498,7 +7658,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7521,7 +7681,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7544,7 +7704,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7567,7 +7727,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>

--- a/src/main/resources/config.xlsx
+++ b/src/main/resources/config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Workspace\RC\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E648C1-DBCF-451A-96C2-6A263762DD1F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27792" windowHeight="14376" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVENT_CONFIG" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="343">
   <si>
     <t>EVENT_NAME</t>
   </si>
@@ -3379,136 +3385,6 @@
     <t>CARPENTER</t>
   </si>
   <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="238"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>ISLAND_ID</t>
   </si>
   <si>
@@ -3620,9 +3496,6 @@
     <t>RECONNAISSANCE</t>
   </si>
   <si>
-    <t>HOUNTING</t>
-  </si>
-  <si>
     <t>NEW_IDEA</t>
   </si>
   <si>
@@ -3729,13 +3602,28 @@
   </si>
   <si>
     <t>NOTHING,NOTHING,NOTHING,NOTHING,NOTHING,NOTHING</t>
+  </si>
+  <si>
+    <t>HUNTING</t>
+  </si>
+  <si>
+    <t>8-5-3</t>
+  </si>
+  <si>
+    <t>9-6-4-2</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>7-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <b/>
       <i/>
@@ -3766,15 +3654,6 @@
       <i/>
       <sz val="10"/>
       <color rgb="FF660E7A"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="238"/>
@@ -3823,12 +3702,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -3889,7 +3769,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3922,9 +3802,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3957,6 +3854,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -4132,22 +4046,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="30.19921875" customWidth="1"/>
+    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4161,12 +4075,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s">
         <v>75</v>
@@ -4175,12 +4089,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C3" t="s">
         <v>75</v>
@@ -4189,12 +4103,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C4" t="s">
         <v>75</v>
@@ -4203,7 +4117,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4217,7 +4131,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4231,7 +4145,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4245,7 +4159,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4259,7 +4173,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4273,7 +4187,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4287,7 +4201,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4301,7 +4215,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4315,7 +4229,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -4329,7 +4243,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4343,7 +4257,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -4357,7 +4271,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -4371,12 +4285,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C17" t="s">
         <v>75</v>
@@ -4385,12 +4299,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C18" t="s">
         <v>75</v>
@@ -4399,12 +4313,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C19" t="s">
         <v>75</v>
@@ -4413,7 +4327,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -4427,7 +4341,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -4441,12 +4355,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C22" t="s">
         <v>75</v>
@@ -4455,12 +4369,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C23" t="s">
         <v>75</v>
@@ -4469,12 +4383,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
@@ -4483,12 +4397,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C25" t="s">
         <v>75</v>
@@ -4497,7 +4411,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -4511,12 +4425,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C27" t="s">
         <v>75</v>
@@ -4525,7 +4439,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -4539,7 +4453,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -4553,7 +4467,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -4567,7 +4481,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -4581,12 +4495,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C32" t="s">
         <v>75</v>
@@ -4595,7 +4509,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -4609,12 +4523,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C34" t="s">
         <v>75</v>
@@ -4623,7 +4537,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -4637,12 +4551,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C36" t="s">
         <v>75</v>
@@ -4651,7 +4565,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>250</v>
       </c>
@@ -4665,12 +4579,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C38" t="s">
         <v>75</v>
@@ -4679,7 +4593,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -4693,12 +4607,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C40" t="s">
         <v>75</v>
@@ -4707,7 +4621,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -4721,12 +4635,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C42" t="s">
         <v>75</v>
@@ -4735,7 +4649,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -4749,12 +4663,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C44" t="s">
         <v>75</v>
@@ -4763,12 +4677,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C45" t="s">
         <v>75</v>
@@ -4777,7 +4691,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>251</v>
       </c>
@@ -4791,12 +4705,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C47" t="s">
         <v>75</v>
@@ -4805,7 +4719,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -4819,7 +4733,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -4833,12 +4747,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C50" t="s">
         <v>75</v>
@@ -4847,12 +4761,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C51" t="s">
         <v>75</v>
@@ -4861,12 +4775,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C52" t="s">
         <v>75</v>
@@ -4875,7 +4789,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -4889,12 +4803,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B54" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C54" t="s">
         <v>75</v>
@@ -4903,12 +4817,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C55" t="s">
         <v>75</v>
@@ -4917,7 +4831,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -4931,12 +4845,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C57" t="s">
         <v>75</v>
@@ -4945,7 +4859,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -4959,12 +4873,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C59" t="s">
         <v>75</v>
@@ -4973,7 +4887,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>254</v>
       </c>
@@ -4987,12 +4901,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C61" t="s">
         <v>75</v>
@@ -5001,12 +4915,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C62" t="s">
         <v>75</v>
@@ -5015,7 +4929,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -5029,12 +4943,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C64" t="s">
         <v>75</v>
@@ -5043,12 +4957,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C65" t="s">
         <v>75</v>
@@ -5057,7 +4971,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>68</v>
       </c>
@@ -5071,12 +4985,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C67" t="s">
         <v>75</v>
@@ -5085,12 +4999,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -5099,7 +5013,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>71</v>
       </c>
@@ -5113,12 +5027,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C70" t="s">
         <v>75</v>
@@ -5127,7 +5041,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>73</v>
       </c>
@@ -5141,12 +5055,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C72" t="s">
         <v>75</v>
@@ -5155,12 +5069,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C73" t="s">
         <v>75</v>
@@ -5169,7 +5083,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>20</v>
       </c>
@@ -5183,12 +5097,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B75" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C75" t="s">
         <v>75</v>
@@ -5197,7 +5111,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>19</v>
       </c>
@@ -5211,12 +5125,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C77" t="s">
         <v>75</v>
@@ -5225,24 +5139,24 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B78" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C78" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D78" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
     </row>
   </sheetData>
@@ -5252,137 +5166,137 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="76.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="76.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
         <v>186</v>
       </c>
       <c r="C2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s">
         <v>337</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>332</v>
       </c>
-      <c r="E2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F3" t="s">
         <v>333</v>
       </c>
-      <c r="G2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F3" t="s">
-        <v>336</v>
-      </c>
       <c r="G3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D5" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -5391,20 +5305,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.875" customWidth="1"/>
-    <col min="2" max="2" width="39.25" customWidth="1"/>
+    <col min="1" max="1" width="56.8984375" customWidth="1"/>
+    <col min="2" max="2" width="39.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>78</v>
       </c>
@@ -5412,244 +5326,244 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>252</v>
       </c>
       <c r="B20" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -5658,20 +5572,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.875" customWidth="1"/>
-    <col min="2" max="2" width="39.25" customWidth="1"/>
+    <col min="1" max="1" width="56.8984375" customWidth="1"/>
+    <col min="2" max="2" width="39.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>137</v>
       </c>
@@ -5679,244 +5593,244 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>228</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>229</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>230</v>
       </c>
       <c r="B11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>231</v>
       </c>
       <c r="B12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>232</v>
       </c>
       <c r="B13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>233</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>234</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>235</v>
       </c>
       <c r="B16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>236</v>
       </c>
       <c r="B17" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>237</v>
       </c>
       <c r="B19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>238</v>
       </c>
       <c r="B20" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>239</v>
       </c>
       <c r="B21" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>240</v>
       </c>
       <c r="B22" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>241</v>
       </c>
       <c r="B23" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>242</v>
       </c>
       <c r="B24" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>243</v>
       </c>
       <c r="B25" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>244</v>
       </c>
       <c r="B26" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>245</v>
       </c>
       <c r="B27" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>246</v>
       </c>
       <c r="B28" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>247</v>
       </c>
       <c r="B29" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>248</v>
       </c>
       <c r="B30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>249</v>
       </c>
       <c r="B31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -5926,20 +5840,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
-    <col min="2" max="2" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="33.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>108</v>
       </c>
@@ -5947,244 +5861,244 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>123</v>
       </c>
       <c r="B18" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>129</v>
       </c>
       <c r="B24" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>134</v>
       </c>
       <c r="B29" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>135</v>
       </c>
       <c r="B30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>136</v>
       </c>
       <c r="B31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -6193,32 +6107,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.8984375" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" customWidth="1"/>
+    <col min="4" max="4" width="6.59765625" customWidth="1"/>
     <col min="5" max="5" width="6.5" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>145</v>
@@ -6230,7 +6144,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>147</v>
       </c>
@@ -6247,7 +6161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>258</v>
       </c>
@@ -6264,7 +6178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>148</v>
       </c>
@@ -6281,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>149</v>
       </c>
@@ -6298,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
@@ -6315,7 +6229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>151</v>
       </c>
@@ -6332,7 +6246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>152</v>
       </c>
@@ -6349,7 +6263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>153</v>
       </c>
@@ -6366,7 +6280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>154</v>
       </c>
@@ -6383,7 +6297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>155</v>
       </c>
@@ -6400,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>259</v>
       </c>
@@ -6417,7 +6331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>256</v>
       </c>
@@ -6434,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>156</v>
       </c>
@@ -6451,7 +6365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>257</v>
       </c>
@@ -6468,7 +6382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>260</v>
       </c>
@@ -6485,7 +6399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>157</v>
       </c>
@@ -6508,24 +6422,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="10" width="19.375" customWidth="1"/>
-    <col min="11" max="16" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" customWidth="1"/>
+    <col min="5" max="10" width="19.3984375" customWidth="1"/>
+    <col min="11" max="16" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>159</v>
       </c>
@@ -6575,7 +6489,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6589,13 +6503,13 @@
         <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H2" t="s">
         <v>186</v>
@@ -6607,25 +6521,25 @@
         <v>186</v>
       </c>
       <c r="K2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6639,7 +6553,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6653,7 +6567,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6661,13 +6575,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6681,7 +6595,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6692,10 +6606,10 @@
         <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6715,27 +6629,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="17.69921875" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>224</v>
@@ -6744,7 +6658,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -6752,13 +6666,13 @@
         <v>218</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>191</v>
       </c>
@@ -6766,13 +6680,13 @@
         <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>192</v>
       </c>
@@ -6780,13 +6694,13 @@
         <v>218</v>
       </c>
       <c r="C4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D4" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -6794,13 +6708,13 @@
         <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>193</v>
       </c>
@@ -6808,13 +6722,13 @@
         <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>194</v>
       </c>
@@ -6822,13 +6736,13 @@
         <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -6836,13 +6750,13 @@
         <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -6850,13 +6764,13 @@
         <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D9" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>197</v>
       </c>
@@ -6864,13 +6778,13 @@
         <v>218</v>
       </c>
       <c r="C10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D10" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -6878,13 +6792,13 @@
         <v>219</v>
       </c>
       <c r="C11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -6892,13 +6806,13 @@
         <v>219</v>
       </c>
       <c r="C12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>200</v>
       </c>
@@ -6906,13 +6820,13 @@
         <v>219</v>
       </c>
       <c r="C13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D13" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>201</v>
       </c>
@@ -6920,13 +6834,13 @@
         <v>219</v>
       </c>
       <c r="C14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>202</v>
       </c>
@@ -6934,13 +6848,13 @@
         <v>219</v>
       </c>
       <c r="C15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>203</v>
       </c>
@@ -6948,13 +6862,13 @@
         <v>219</v>
       </c>
       <c r="C16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D16" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>204</v>
       </c>
@@ -6962,13 +6876,13 @@
         <v>219</v>
       </c>
       <c r="C17" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D17" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>205</v>
       </c>
@@ -6976,13 +6890,13 @@
         <v>219</v>
       </c>
       <c r="C18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>188</v>
       </c>
@@ -6996,7 +6910,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>206</v>
       </c>
@@ -7004,13 +6918,13 @@
         <v>219</v>
       </c>
       <c r="C20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D20" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>207</v>
       </c>
@@ -7018,13 +6932,13 @@
         <v>219</v>
       </c>
       <c r="C21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>208</v>
       </c>
@@ -7032,13 +6946,13 @@
         <v>219</v>
       </c>
       <c r="C22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D22" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>209</v>
       </c>
@@ -7046,13 +6960,13 @@
         <v>219</v>
       </c>
       <c r="C23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D23" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>210</v>
       </c>
@@ -7060,13 +6974,13 @@
         <v>219</v>
       </c>
       <c r="C24" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D24" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>211</v>
       </c>
@@ -7074,13 +6988,13 @@
         <v>219</v>
       </c>
       <c r="C25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D25" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>212</v>
       </c>
@@ -7088,13 +7002,13 @@
         <v>219</v>
       </c>
       <c r="C26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D26" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>213</v>
       </c>
@@ -7108,7 +7022,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>214</v>
       </c>
@@ -7116,13 +7030,13 @@
         <v>219</v>
       </c>
       <c r="C28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D28" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>215</v>
       </c>
@@ -7136,7 +7050,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>216</v>
       </c>
@@ -7150,7 +7064,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>217</v>
       </c>
@@ -7158,161 +7072,161 @@
         <v>219</v>
       </c>
       <c r="C31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D31" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>283</v>
+      </c>
+      <c r="B32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" t="s">
+        <v>280</v>
+      </c>
+      <c r="D32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>284</v>
+      </c>
+      <c r="B33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C33" t="s">
+        <v>280</v>
+      </c>
+      <c r="D33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>285</v>
       </c>
-      <c r="B32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C32" t="s">
-        <v>282</v>
-      </c>
-      <c r="D32" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>286</v>
-      </c>
-      <c r="B33" t="s">
-        <v>219</v>
-      </c>
-      <c r="C33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D33" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>287</v>
-      </c>
       <c r="B34" t="s">
         <v>219</v>
       </c>
       <c r="C34" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D34" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>286</v>
+      </c>
+      <c r="B35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" t="s">
+        <v>280</v>
+      </c>
+      <c r="D35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>287</v>
+      </c>
+      <c r="B36" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" t="s">
+        <v>280</v>
+      </c>
+      <c r="D36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>288</v>
       </c>
-      <c r="B35" t="s">
-        <v>219</v>
-      </c>
-      <c r="C35" t="s">
-        <v>282</v>
-      </c>
-      <c r="D35" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" t="s">
+        <v>280</v>
+      </c>
+      <c r="D37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>289</v>
       </c>
-      <c r="B36" t="s">
-        <v>219</v>
-      </c>
-      <c r="C36" t="s">
-        <v>282</v>
-      </c>
-      <c r="D36" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C38" t="s">
+        <v>280</v>
+      </c>
+      <c r="D38" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>290</v>
       </c>
-      <c r="B37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C37" t="s">
-        <v>282</v>
-      </c>
-      <c r="D37" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B39" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" t="s">
+        <v>280</v>
+      </c>
+      <c r="D39" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>291</v>
       </c>
-      <c r="B38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C38" t="s">
-        <v>282</v>
-      </c>
-      <c r="D38" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" t="s">
+        <v>280</v>
+      </c>
+      <c r="D40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>292</v>
       </c>
-      <c r="B39" t="s">
-        <v>219</v>
-      </c>
-      <c r="C39" t="s">
-        <v>282</v>
-      </c>
-      <c r="D39" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>293</v>
-      </c>
-      <c r="B40" t="s">
-        <v>219</v>
-      </c>
-      <c r="C40" t="s">
-        <v>282</v>
-      </c>
-      <c r="D40" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>294</v>
-      </c>
       <c r="B41" t="s">
         <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D41" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s">
         <v>219</v>
       </c>
       <c r="C42" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D42" t="s">
         <v>219</v>
@@ -7324,35 +7238,35 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="15.8984375" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>262</v>
@@ -7361,93 +7275,93 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>264</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F2" t="s">
-        <v>265</v>
+        <v>303</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="G2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F3" t="s">
-        <v>266</v>
+        <v>306</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="G3">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F4">
-        <v>6.1</v>
+        <v>309</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="G4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="D5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F5">
-        <v>7.3</v>
+        <v>312</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -7455,60 +7369,61 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7520,18 +7435,18 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C3" t="s">
         <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -7543,15 +7458,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D4" t="s">
         <v>145</v>
@@ -7566,15 +7481,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D5" t="s">
         <v>145</v>
@@ -7589,18 +7504,18 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
         <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -7612,18 +7527,18 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C7" t="s">
         <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -7635,18 +7550,18 @@
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -7658,15 +7573,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D9" t="s">
         <v>145</v>
@@ -7681,18 +7596,18 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
         <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -7704,15 +7619,15 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D11" t="s">
         <v>145</v>
@@ -7727,18 +7642,18 @@
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E12">
         <v>0</v>

--- a/src/main/resources/config.xlsx
+++ b/src/main/resources/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Workspace\RC\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E648C1-DBCF-451A-96C2-6A263762DD1F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D195BE-B9D3-4082-B4B9-01DE7679A0C7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27792" windowHeight="14376" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27792" windowHeight="14376" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVENT_CONFIG" sheetId="1" r:id="rId1"/>
@@ -3592,18 +3592,6 @@
     <t>WOUND</t>
   </si>
   <si>
-    <t>SINGLE_RAIN,SINGLE_RAIN,SINGLE_RAIN,DOUBLE_RAIN,DOUBLE_RAIN,SINGLE_SNOW</t>
-  </si>
-  <si>
-    <t>DOUBLE_RAIN,DOUBLE_RAIN,SINGLE_SNOW,SINGLE_SNOW,DOUBLE_SNOW,DOUBLE_SNOW</t>
-  </si>
-  <si>
-    <t>NOTHING,NOTHING,BEAST_ATTACK,PALISADE_DAMAGE,PALISADE_DAMAGE,FOOD_DISCARD</t>
-  </si>
-  <si>
-    <t>NOTHING,NOTHING,NOTHING,NOTHING,NOTHING,NOTHING</t>
-  </si>
-  <si>
     <t>HUNTING</t>
   </si>
   <si>
@@ -3617,6 +3605,18 @@
   </si>
   <si>
     <t>7-3</t>
+  </si>
+  <si>
+    <t>SINGLE_RAIN-SINGLE_RAIN-SINGLE_RAIN-DOUBLE_RAIN-DOUBLE_RAIN-SINGLE_SNOW</t>
+  </si>
+  <si>
+    <t>DOUBLE_RAIN-DOUBLE_RAIN-SINGLE_SNOW-SINGLE_SNOW-DOUBLE_SNOW-DOUBLE_SNOW</t>
+  </si>
+  <si>
+    <t>NONE-NONE-BEAST_ATTACK-PALISADE_DAMAGE-PALISADE_DAMAGE-FOOD_DISCARD</t>
+  </si>
+  <si>
+    <t>NONE-NONE-NONE-NONE-NONE-NONE</t>
   </si>
 </sst>
 </file>
@@ -5169,15 +5169,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="74.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.3984375" bestFit="1" customWidth="1"/>
@@ -5215,19 +5215,19 @@
         <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D2" t="s">
         <v>329</v>
       </c>
       <c r="E2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F2" t="s">
         <v>330</v>
       </c>
       <c r="G2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -5238,19 +5238,19 @@
         <v>331</v>
       </c>
       <c r="C3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D3" t="s">
         <v>332</v>
       </c>
       <c r="E3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F3" t="s">
         <v>333</v>
       </c>
       <c r="G3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -5261,19 +5261,19 @@
         <v>331</v>
       </c>
       <c r="C4" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D4" t="s">
         <v>332</v>
       </c>
       <c r="E4" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F4" t="s">
         <v>333</v>
       </c>
       <c r="G4" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -5284,19 +5284,19 @@
         <v>331</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D5" t="s">
         <v>332</v>
       </c>
       <c r="E5" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F5" t="s">
         <v>333</v>
       </c>
       <c r="G5" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -6110,9 +6110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7241,7 +7239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -7292,7 +7290,7 @@
         <v>303</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -7315,7 +7313,7 @@
         <v>306</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -7338,7 +7336,7 @@
         <v>309</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -7352,7 +7350,7 @@
         <v>310</v>
       </c>
       <c r="C5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D5" t="s">
         <v>311</v>
@@ -7361,7 +7359,7 @@
         <v>312</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -7378,7 +7376,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="A1:G12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
